--- a/Client/CSRD Disclosure Details.xlsx
+++ b/Client/CSRD Disclosure Details.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mngenvmcap909640.sharepoint.com/sites/SustainabilityGenAISA/Shared Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\masavari\git\github\microsoft\Comparative-Analysis-for-Sustainability-Solution-Accelerator\Client\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="8_{14528398-D3B0-4CD7-B969-72BA862519C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D94F3393-5C3B-4A34-9E97-009D88B3E804}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5200EBFA-2106-4A66-A842-C7F32FBA475C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{6DE62E15-28E5-40E0-BCC5-4A2DB6836778}"/>
+    <workbookView xWindow="3240" yWindow="-20295" windowWidth="34665" windowHeight="17955" xr2:uid="{6DE62E15-28E5-40E0-BCC5-4A2DB6836778}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="273">
   <si>
     <t>disclosureNumber</t>
   </si>
@@ -120,9 +120,6 @@
   </si>
   <si>
     <t>609bc622-2a13-460e-bebe-af6749ad9c6e</t>
-  </si>
-  <si>
-    <t>E5-219</t>
   </si>
   <si>
     <t>Actions and resources related to resource use and circular economy</t>
@@ -145,9 +142,6 @@
     <t>0f171f4a-3445-40a9-b4de-edd0cb9b07a0</t>
   </si>
   <si>
-    <t>E5-220 a</t>
-  </si>
-  <si>
     <t>Description of higher levels of resource efficiency in use of technical and biological materials and water</t>
   </si>
   <si>
@@ -159,9 +153,6 @@
     <t>1c5877af-22f9-4226-9bfd-64c1bd8100a5</t>
   </si>
   <si>
-    <t>E5-220b</t>
-  </si>
-  <si>
     <t>Description of higher rates of use of secondary raw materials</t>
   </si>
   <si>
@@ -171,9 +162,6 @@
     <t>2b086ecd-1f2b-4190-a998-3f5818d319e8</t>
   </si>
   <si>
-    <t>E5-220c</t>
-  </si>
-  <si>
     <t>Description of application of circular design</t>
   </si>
   <si>
@@ -183,9 +171,6 @@
     <t>c331f967-9625-4dc0-a157-9f6f4ad7c032</t>
   </si>
   <si>
-    <t>E5-220d</t>
-  </si>
-  <si>
     <t>Description of application of circular business practices</t>
   </si>
   <si>
@@ -195,9 +180,6 @@
     <t>e6891e55-89d0-48c5-b4f7-1000cda5565d</t>
   </si>
   <si>
-    <t>E5-220e</t>
-  </si>
-  <si>
     <t>Description of actions taken to prevent waste generation</t>
   </si>
   <si>
@@ -207,9 +189,6 @@
     <t>d793138f-ad39-479a-9683-a4a883be5cf3</t>
   </si>
   <si>
-    <t>E5-220f</t>
-  </si>
-  <si>
     <t>Description of Optimistation of waste management in</t>
   </si>
   <si>
@@ -217,9 +196,6 @@
   </si>
   <si>
     <t>e719649c-c4d5-47a1-a9b6-124652b767ba</t>
-  </si>
-  <si>
-    <t>E5-431a</t>
   </si>
   <si>
     <t>Resource inflows</t>
@@ -242,9 +218,6 @@
     <t>b04a7840-5f97-4080-945b-6299dacb17d1</t>
   </si>
   <si>
-    <t>E5-431b</t>
-  </si>
-  <si>
     <t>Percentage of biological materials (and biofuels used for non-energy purposes)</t>
   </si>
   <si>
@@ -254,9 +227,6 @@
     <t>ce2fe611-0efd-4e8e-9e38-61da631df476</t>
   </si>
   <si>
-    <t>E5-431c</t>
-  </si>
-  <si>
     <t>The absolute weight of secondary reused or recycled components, secondary intermediary products and secondary materials used to manufacture the undertaking’s products and services (including packaging)</t>
   </si>
   <si>
@@ -266,9 +236,6 @@
     <t>a360dc46-490c-4f6f-8799-3eebd892c347</t>
   </si>
   <si>
-    <t>E5-432</t>
-  </si>
-  <si>
     <t>Description of methodologies used to calculate data and key assumptions used</t>
   </si>
   <si>
@@ -276,9 +243,6 @@
   </si>
   <si>
     <t>38c7f65a-ce72-4f65-ba71-af6967c86005</t>
-  </si>
-  <si>
-    <t>S1-650a</t>
   </si>
   <si>
     <t>Characteristics of the undertaking’s employees</t>
@@ -304,9 +268,6 @@
     <t>c5ba51d8-1046-441c-895b-af8002cedcf4</t>
   </si>
   <si>
-    <t>S1-650b</t>
-  </si>
-  <si>
     <t>Characteristics of undertaking's employees - information on employees by contract type, gender and region [table]</t>
   </si>
   <si>
@@ -322,9 +283,6 @@
     <t>80aa69e3-28e0-4d6d-b06d-ac856242f1e5</t>
   </si>
   <si>
-    <t>S1-650c</t>
-  </si>
-  <si>
     <t>Number of employee turnover</t>
   </si>
   <si>
@@ -332,9 +290,6 @@
   </si>
   <si>
     <t>c21d4b8d-314f-481f-af55-c27e53ccdbdd</t>
-  </si>
-  <si>
-    <t>S1-650d</t>
   </si>
   <si>
     <t xml:space="preserve">Description of methodologies and assumptions used to compile data (employees) </t>
@@ -348,9 +303,6 @@
     <t>82416a06-09c4-44fa-9c6d-46bbf1c0ba59</t>
   </si>
   <si>
-    <t>S1-650e</t>
-  </si>
-  <si>
     <t xml:space="preserve">Disclosure of contextual information necessary to understand data (employees) </t>
   </si>
   <si>
@@ -358,9 +310,6 @@
   </si>
   <si>
     <t>15164ba4-570c-47dd-93fc-ee3ca5384d06</t>
-  </si>
-  <si>
-    <t>S1-652 a</t>
   </si>
   <si>
     <t>Number of full-time employees by head count or full time equivalent</t>
@@ -374,9 +323,6 @@
     <t>ae2bba71-524c-4066-a6cf-92bed2d1f687</t>
   </si>
   <si>
-    <t>S1-652 b</t>
-  </si>
-  <si>
     <t>Number of part-time employees by head count or full time equivalent</t>
   </si>
   <si>
@@ -386,9 +332,6 @@
     <t>ad560632-0db7-4da8-842a-b195e7b1c346</t>
   </si>
   <si>
-    <t>S1-650f</t>
-  </si>
-  <si>
     <t xml:space="preserve">Disclosure of cross-reference of information reported under paragragph 51 (a) to most representative number in financial statements </t>
   </si>
   <si>
@@ -398,19 +341,679 @@
     <t>5c03f7cc-65eb-437c-bfe5-2e705c560c21</t>
   </si>
   <si>
-    <t>E1-1 14</t>
-  </si>
-  <si>
-    <t>E1-1 16a</t>
-  </si>
-  <si>
-    <t>E1-1 16b</t>
-  </si>
-  <si>
-    <t>E1-116h</t>
-  </si>
-  <si>
-    <t>E2-5 32</t>
+    <t>GRI Disclosure 1</t>
+  </si>
+  <si>
+    <t>Reporting in accordance with the GRI Standards</t>
+  </si>
+  <si>
+    <t>GRI Disclosure 2-1</t>
+  </si>
+  <si>
+    <t>Organizational details</t>
+  </si>
+  <si>
+    <t>GRI Disclosure 2-2</t>
+  </si>
+  <si>
+    <t>Entities included in the organization's sustainability reporting</t>
+  </si>
+  <si>
+    <t>GRI Disclosure 2-3</t>
+  </si>
+  <si>
+    <t>Reporting period frequency and contact point</t>
+  </si>
+  <si>
+    <t>GRI Disclosure 2-4</t>
+  </si>
+  <si>
+    <t>Restatements of information</t>
+  </si>
+  <si>
+    <t>GRI Disclosure 2-5</t>
+  </si>
+  <si>
+    <t>External assurance</t>
+  </si>
+  <si>
+    <t>GRI Disclosure 2-6</t>
+  </si>
+  <si>
+    <t>Activities value chain and other business relationships</t>
+  </si>
+  <si>
+    <t>GRI Disclosure 2-7</t>
+  </si>
+  <si>
+    <t>Employees</t>
+  </si>
+  <si>
+    <t>GRI Disclosure 2-8</t>
+  </si>
+  <si>
+    <t>Workers who are not employees</t>
+  </si>
+  <si>
+    <t>GRI Disclosure 2-9</t>
+  </si>
+  <si>
+    <t>Governance structure and composition</t>
+  </si>
+  <si>
+    <t>GRI Disclosure 2-10</t>
+  </si>
+  <si>
+    <t>Nomination and selection of the highest governance body</t>
+  </si>
+  <si>
+    <t>GRI Disclosure 2-11</t>
+  </si>
+  <si>
+    <t>Chair of the highest governance body</t>
+  </si>
+  <si>
+    <t>GRI Disclosure 2-12</t>
+  </si>
+  <si>
+    <t>Role of the highest governance body in overseeing the management of impacts</t>
+  </si>
+  <si>
+    <t>GRI Disclosure 2-13</t>
+  </si>
+  <si>
+    <t>Delegation of responsibility for managing impacts</t>
+  </si>
+  <si>
+    <t>GRI Disclosure 2-14</t>
+  </si>
+  <si>
+    <t>Role of the highest governance body in sustainability reporting</t>
+  </si>
+  <si>
+    <t>GRI Disclosure 2-15</t>
+  </si>
+  <si>
+    <t>Conflicts of interest</t>
+  </si>
+  <si>
+    <t>GRI Disclosure 2-16</t>
+  </si>
+  <si>
+    <t>Communication of critical concerns</t>
+  </si>
+  <si>
+    <t>GRI Disclosure 2-17</t>
+  </si>
+  <si>
+    <t>Collective knowledge of the highest governance body</t>
+  </si>
+  <si>
+    <t>GRI Disclosure 2-18</t>
+  </si>
+  <si>
+    <t>Evaluation of the performance of the highest governance body</t>
+  </si>
+  <si>
+    <t>GRI Disclosure 2-19</t>
+  </si>
+  <si>
+    <t>Remuneration policies</t>
+  </si>
+  <si>
+    <t>GRI Disclosure 2-20</t>
+  </si>
+  <si>
+    <t>Process to determine remuneration</t>
+  </si>
+  <si>
+    <t>GRI Disclosure 2-21</t>
+  </si>
+  <si>
+    <t>Annual total compensation ratio</t>
+  </si>
+  <si>
+    <t>GRI Disclosure 2-22</t>
+  </si>
+  <si>
+    <t>Statement on sustainable development strategy</t>
+  </si>
+  <si>
+    <t>GRI Disclosure 2-23</t>
+  </si>
+  <si>
+    <t>Policy commitments</t>
+  </si>
+  <si>
+    <t>GRI Disclosure 2-24</t>
+  </si>
+  <si>
+    <t>Embedding policy commitments</t>
+  </si>
+  <si>
+    <t>GRI Disclosure 2-25</t>
+  </si>
+  <si>
+    <t>Processes to remediate negative impacts</t>
+  </si>
+  <si>
+    <t>GRI Disclosure 2-26</t>
+  </si>
+  <si>
+    <t>Mechanisms for seeking advice and raising concerns</t>
+  </si>
+  <si>
+    <t>GRI Disclosure 2-27</t>
+  </si>
+  <si>
+    <t>Compliance with laws and regulations</t>
+  </si>
+  <si>
+    <t>GRI Disclosure 2-28</t>
+  </si>
+  <si>
+    <t>Membership associations</t>
+  </si>
+  <si>
+    <t>GRI Disclosure 2-29</t>
+  </si>
+  <si>
+    <t>Approach to stakeholder engagement</t>
+  </si>
+  <si>
+    <t>GRI Disclosure 2-30</t>
+  </si>
+  <si>
+    <t>Collective bargaining agreements</t>
+  </si>
+  <si>
+    <t>GRI Disclosure 3-1</t>
+  </si>
+  <si>
+    <t>Process to determine material topics</t>
+  </si>
+  <si>
+    <t>GRI Disclosure 3-2</t>
+  </si>
+  <si>
+    <t>List of material topics</t>
+  </si>
+  <si>
+    <t>GRI Disclosure 3-3</t>
+  </si>
+  <si>
+    <t>Management of material topics</t>
+  </si>
+  <si>
+    <t>CSRD E1-1 14</t>
+  </si>
+  <si>
+    <t>CSRD E1-1 16a</t>
+  </si>
+  <si>
+    <t>CSRD E1-1 16b</t>
+  </si>
+  <si>
+    <t>CSRD E1-116h</t>
+  </si>
+  <si>
+    <t>CSRD E2-5 32</t>
+  </si>
+  <si>
+    <t>CSRD E5-219</t>
+  </si>
+  <si>
+    <t>CSRD E5-220 a</t>
+  </si>
+  <si>
+    <t>CSRD E5-220b</t>
+  </si>
+  <si>
+    <t>CSRD E5-220c</t>
+  </si>
+  <si>
+    <t>CSRD E5-220d</t>
+  </si>
+  <si>
+    <t>CSRD E5-220e</t>
+  </si>
+  <si>
+    <t>CSRD E5-220f</t>
+  </si>
+  <si>
+    <t>CSRD E5-431a</t>
+  </si>
+  <si>
+    <t>CSRD E5-431b</t>
+  </si>
+  <si>
+    <t>CSRD E5-431c</t>
+  </si>
+  <si>
+    <t>CSRD E5-432</t>
+  </si>
+  <si>
+    <t>CSRD S1-650a</t>
+  </si>
+  <si>
+    <t>CSRD S1-650b</t>
+  </si>
+  <si>
+    <t>CSRD S1-650c</t>
+  </si>
+  <si>
+    <t>CSRD S1-650d</t>
+  </si>
+  <si>
+    <t>CSRD S1-650e</t>
+  </si>
+  <si>
+    <t>CSRD S1-650f</t>
+  </si>
+  <si>
+    <t>CSRD S1-652 a</t>
+  </si>
+  <si>
+    <t>CSRD S1-652 b</t>
+  </si>
+  <si>
+    <t>Disclosure of reporting in accordance with the GRI Standards</t>
+  </si>
+  <si>
+    <t>Disclosure of organizational details</t>
+  </si>
+  <si>
+    <t>Disclosure on the entities included in the organization's sustainability reporting</t>
+  </si>
+  <si>
+    <t>Disclosure on the reporting period, frequency, and contact point</t>
+  </si>
+  <si>
+    <t>Disclosure of restatements of information</t>
+  </si>
+  <si>
+    <t>Disclosure of external assurance</t>
+  </si>
+  <si>
+    <t>Disclosure on the activities, value chain, and other business relationships of the organization</t>
+  </si>
+  <si>
+    <t>Disclosure of information about employees</t>
+  </si>
+  <si>
+    <t>Disclosure of workers who are not employees</t>
+  </si>
+  <si>
+    <t>Disclosure of governance structure and composition</t>
+  </si>
+  <si>
+    <t>Disclosure of the nomination and selection process for the highest governance body</t>
+  </si>
+  <si>
+    <t>Disclosure of the role and position of the chair of the highest governance body</t>
+  </si>
+  <si>
+    <t>Disclosure about the role of the highest governance body</t>
+  </si>
+  <si>
+    <t>Disclosure of delegation of responsibility for managing impacts</t>
+  </si>
+  <si>
+    <t>Disclosure related to conflicts of interest</t>
+  </si>
+  <si>
+    <t>Disclosure of collective knowledge in the highest governance body</t>
+  </si>
+  <si>
+    <t>Disclosure of remuneration policies</t>
+  </si>
+  <si>
+    <t>Disclosure of the process for determining remuneration</t>
+  </si>
+  <si>
+    <t>Disclosure of the annual total compensation ratio</t>
+  </si>
+  <si>
+    <t>Disclosure of the organization's sustainable development strategy</t>
+  </si>
+  <si>
+    <t>Disclosure of policy commitments:</t>
+  </si>
+  <si>
+    <t>Disclosure of how policy commitments are embedded within the organization</t>
+  </si>
+  <si>
+    <t>Processes to remediate identified negative impacts</t>
+  </si>
+  <si>
+    <t>Disclosure of mechanisms for seeking advice and raising concerns</t>
+  </si>
+  <si>
+    <t>Disclosure regarding the undertaking's compliance with applicable laws and regulations</t>
+  </si>
+  <si>
+    <t>Disclosure on membership in associations</t>
+  </si>
+  <si>
+    <t>Disclosure of the approach to stakeholder engagement</t>
+  </si>
+  <si>
+    <t>Disclosure of collective bargaining agreements</t>
+  </si>
+  <si>
+    <t>Disclosure of the process to determine material topics</t>
+  </si>
+  <si>
+    <t>Disclosure of the list of material topics</t>
+  </si>
+  <si>
+    <t>Disclosure of the management approach for material topics</t>
+  </si>
+  <si>
+    <t>Disclosure of the highest governance body's role in sustainability reporting</t>
+  </si>
+  <si>
+    <t>The organization shall specify the GRI Standards used as the basis for the report, and explain the extent to which the GRI Standards have been applied.</t>
+  </si>
+  <si>
+    <t>The organization shall provide a list of all entities included in its sustainability reporting. It should describe whether any entity is excluded from the sustainability reporting, and provide an explanation for such exclusion.</t>
+  </si>
+  <si>
+    <t>The organization shall report the following information: (1) The reporting period for and frequency of any sustainability reports provided. (2) The contact point for questions regarding the report or its content.</t>
+  </si>
+  <si>
+    <t>The organization shall disclose whether it has obtained external assurance for its sustainability report. If the report has been externally assured, the organization shall disclose:_x000D_
+(a) A description of the external assurance approach;_x000D_
+(b) The scope of the assurance process;_x000D_
+(c) The assurance provider(s);_x000D_
+(d) The assurance standards used;_x000D_
+(e) A description of the relationship between the organization and the assurance provider(s); and_x000D_
+(f) The conclusions of the external assurance statement.</t>
+  </si>
+  <si>
+    <t>The organization shall report the nature and extent of worker engagement that is not based on direct employment (i.e., contract workers, consultants, temporary staff, etc.). This disclosure should provide insight into how the organization engages non-employee workers to understand their role in operations, how they are managed, and any significant trends or dependencies arising from their use.</t>
+  </si>
+  <si>
+    <t>The organization shall disclose whether the chair of the highest governance body is also an executive officer in the organization. If the chair is also an executive officer, the organization shall explain their function within the organization's management and the reasons for this arrangement.</t>
+  </si>
+  <si>
+    <t>The organization shall disclose:_x000D_
+a. Processes for identifying and managing conflicts of interest._x000D_
+b. Whether conflicts of interest are disclosed to stakeholders, including, as a minimum, the governance body members and senior executives._x000D_
+c. Measures taken to deal with conflicts of interest, stating whether the organization has a policy on conflicts of interest and, if so, where it can be publicly accessed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The organization shall describe its mechanisms for individuals to raise concerns about business conduct, ensuring it is clear on the types of concerns that can be raised through these mechanisms. </t>
+  </si>
+  <si>
+    <t>The organization shall describe the measures taken to develop and enhance the collective knowledge of the highest governance body on sustainable development.</t>
+  </si>
+  <si>
+    <t>The organization shall disclose: _x000D_
+(a) A description of the processes for evaluating the performance of the highest governance body in overseeing the organization's activities on economic, environmental, and social topics;_x000D_
+(b) Whether such evaluations are independent or not, and how they are conducted;_x000D_
+(c) A description of the actions taken in response to the evaluation results, including changes to the membership of the highest governance body and organizational practices and procedures.</t>
+  </si>
+  <si>
+    <t>The organization shall disclose its process to determine remuneration. This includes:_x000D_
+_x000D_
+- Whether remuneration is determined based on company performance, individual performance, or other factors_x000D_
+- The criteria used to determine remuneration, such as financial performance, sustainability performance, or other metrics_x000D_
+- The entities and individuals involved in the process, such as the Board of Directors, Remuneration Committee, or external advisors_x000D_
+- The influence of shareholders and other stakeholders on remuneration policies</t>
+  </si>
+  <si>
+    <t>The organization shall disclose the ratio of the annual total compensation for the highest-paid individual in each country of significant operations to the median annual total compensation for all employees (excluding the highest-paid individual) in the same country._x000D_
+_x000D_
+The ratio should be disclosed separately for each country and should indicate any significant changes in the ratio compared to previous reporting periods.</t>
+  </si>
+  <si>
+    <t>The organization shall disclose its sustainable development strategy. This includes a statement from the most senior decision-maker in the organization, such as the CEO or chair of the highest governance body, about the relevance of sustainable development to the organization and its strategy for contributing to sustainable development. This should cover topics such as the organization's vision, values, strategy, and management approach regarding economic, environmental, and social impacts.</t>
+  </si>
+  <si>
+    <t>The organization shall disclose its policy commitments for responsible business conduct. Specifically, the organization should provide information on the following:_x000D_
+- The content of policy commitments regarding respect for internationally recognized human rights and prevention of adverse impacts on people and the environment;_x000D_
+- Any commitment to comply with laws and regulations;_x000D_
+- How these policy commitments are communicated across the organization and to business partners;_x000D_
+- The processes in place to engage with stakeholders in the development of these policy commitments;_x000D_
+- How the organization monitors the implementation of its policy commitments and addresses potential violations._x000D_
+_x000D_
+Organizations are encouraged to disclose any updates to these commitments, highlighting significant changes and the reasons behind them. Additionally, organizations should provide context on how these commitments align with or go beyond legal requirements and international standards.</t>
+  </si>
+  <si>
+    <t>The organization shall describe how its policy commitments for responsible business conduct are embedded throughout the organization. This includes outlining the roles and responsibilities of top management and staff, communication of the policy commitments, and any training or capacity-building activities offered to ensure understanding and implementation.</t>
+  </si>
+  <si>
+    <t>The organization shall describe the process(es) for remediating any negative social, environmental, and economic impacts that it has identified. This includes a description of:_x000D_
+(a) the stages and procedures within the processes;_x000D_
+(b) the roles and responsibilities of any personnel or bodies involved in the remediation processes;_x000D_
+(c) how the effectiveness of the processes is monitored and assessed;_x000D_
+(d) any improvements made as a result of monitoring and assessment;_x000D_
+(e) examples or case studies of remediation efforts, if applicable.</t>
+  </si>
+  <si>
+    <t>The organization shall describe the mechanisms for individuals to seek advice about ethical and lawful behavior and organizational integrity, and to raise concerns about unethical or unlawful behavior and lack of organizational integrity. This shall include information on how the organization encourages the use of these mechanisms, and the measures taken to protect confidentiality and prevent retaliation against individuals who use these mechanisms.</t>
+  </si>
+  <si>
+    <t>The organization shall list its memberships of industry or other associations, and national or international advocacy organizations.</t>
+  </si>
+  <si>
+    <t>The organization shall disclose its approach to stakeholder engagement, including:_x000D_
+(a) How the organization identifies and prioritizes stakeholders for engagement;_x000D_
+(b) How the organization engages with stakeholders, including the frequency of engagement by type and by stakeholder group;_x000D_
+(c) Any topics raised by stakeholders during the reporting period, and how the organization has responded, including through its reporting;_x000D_
+(d) How engagement with stakeholders has informed the organization's strategy and sustainability practices;_x000D_
+(e) Any challenges or limitations faced in engaging with stakeholders.</t>
+  </si>
+  <si>
+    <t>The organization shall disclose the percentage of total employees covered by collective bargaining agreements. This includes any collective agreements entered into by the organization covering terms and conditions of employment or other aspects of the employment relationship.</t>
+  </si>
+  <si>
+    <t>The organization shall disclose a list of material topics, as identified in its materiality assessment.</t>
+  </si>
+  <si>
+    <t>The organization shall report the following information:_x000D_
+(a) the effect of any restatements, providing:_x000D_
+(i) the reasons for such restatements;_x000D_
+(ii) the amounts involved, distinguishing between voluntary and involuntary restatements._x000D_
+(b) the nature and effect of any corrections to previous years' information.</t>
+  </si>
+  <si>
+    <t>The organization is required to disclose the following details:_x000D_
+    a. A description of its activities, including the primary products and services it offers._x000D_
+    b. A description of the supply chain, including significant changes during the reporting period._x000D_
+    c. A description of the value chain, including the organization's key activities, such as R&amp;D, production, distribution, and marketing._x000D_
+    d. Description of the organization's other significant business relationships, such as joint ventures, subsidiaries, and partnerships.</t>
+  </si>
+  <si>
+    <t>The organization shall disclose information about its governance structure and composition._x000D_
+This includes:_x000D_
+(a) The governance structure of the organization, including committees of the highest governance body;_x000D_
+(b) The process by which the highest governance body delegates authority for economic, environmental, and social topics to senior executives and other employees;_x000D_
+(c) The composition of the highest governance body and its committees by:_x000D_
+    i. Executive or non-executive;_x000D_
+    ii. Independence;_x000D_
+    iii. Tenure on the governance body;_x000D_
+    iv. Number of each individual's other significant positions and commitments, and the nature of the commitments;_x000D_
+    v. Gender;_x000D_
+    vi. Membership of under-represented social groups;_x000D_
+    vii. Competences relating to economic, environmental, and social topics;_x000D_
+    viii. Stakeholder representation.</t>
+  </si>
+  <si>
+    <t>The organization shall report the following information:_x000D_
+_x000D_
+a. Whether the organization has appointed any senior executives (or equivalent positions) with responsibility for the organization's impacts on the economy, environment, and people, including their identity and position._x000D_
+b. Whether the organization has delegated responsibility for managing the organization's impacts on the economy, environment, and people, of specific topics, to other employees or groups. If so, the topic and position of the employee or name of the group._x000D_
+c. If responsibility for managing the organization's impacts on the economy, environment, and people is delegated to external stakeholders (such as consultants or contractors), a disclosure of this delegation and a description of the processes by which the delegated responsibility is managed and overseen by the organization.</t>
+  </si>
+  <si>
+    <t>The organization shall describe the role of the highest governance body and of senior executives in the development, approval, and updating of the organization's sustainability reporting, including the frequency with which they are involved. The organization shall also describe any relevant mandate, responsibilities, and accountabilities for sustainability reporting assigned to the highest governance body and senior executives.</t>
+  </si>
+  <si>
+    <t>The organization shall disclose information about its remuneration policies for members of the highest governance body and senior executives, including:_x000D_
+(a) How performance criteria in the remuneration policies relate to the highest governance body's and senior executives' objectives for the organization;_x000D_
+(b) How the policies aim to ensure that remuneration of the highest governance body and senior executives is aligned with the longer-term interests and sustainability strategies of the organization;_x000D_
+(c) Types and amounts of remuneration;_x000D_
+(d) How the organization seeks to ensure that remuneration practices take account of future risks and the broader potential impacts on society and the environment.</t>
+  </si>
+  <si>
+    <t>The organization shall report the following information:_x000D_
+(a) Significant instances of non-compliance with laws and regulations during the reporting period._x000D_
+(b) The monetary value of fines and the total number of non-monetary sanctions for non-compliance with laws and regulations._x000D_
+(c) Whether any cases typically involved in non-compliance reflect systemic issues in the organization's compliance system and responses undertaken to address them.</t>
+  </si>
+  <si>
+    <t>The organization shall disclose its process to determine its material topics, including:_x000D_
+(a) How it has identified actual and potential, negative and positive impacts on the economy, environment, and people, including impacts on their human rights, across the organization's activities and business relationships._x000D_
+(b) How it has prioritized these impacts for reporting based on their significance._x000D_
+(c) Any consultative or other processes used to prioritize the impacts._x000D_
+(d) How the organization has considered stakeholders' views in this process.</t>
+  </si>
+  <si>
+    <t>The organization shall disclose how it manages each of its material topics. This includes the following:_x000D_
+_x000D_
+- The management approach or methods used to manage the topic_x000D_
+- The organization's processes to evaluate the effectiveness of the management approach_x000D_
+- Disclosure of any specific actions taken during the reporting period concerning the management of the material topic_x000D_
+- The organization's policies, commitments, goals and targets related to the topic_x000D_
+- The resources allocated to manage the topic, including staff and financial resources_x000D_
+- The organization's processes for monitoring the management of the topic_x000D_
+- How the management of the material topic is integrated into the organization's overall strategy, governance, and risk management_x000D_
+- The outcomes of the management approach or methods for the reporting period, which may include performance metrics or other evidence demonstrating the effectiveness of the management approach</t>
+  </si>
+  <si>
+    <t>When disclosing in accordance with the GRI Standards, organizations should provide a clear reference to the GRI Standards used, such as GRI 101: Foundation, GRI 102: General Disclosures, and any topic-specific Standards relevant to the organization. They should also specify whether the reporting is done in accordance with the Core option or Comprehensive option, or if it follows a customized approach aligned with the GRI Standards framework.</t>
+  </si>
+  <si>
+    <t>The reporting organization shall provide contextual information about its organization to allow for a better understanding of its sustainability impacts and performance.</t>
+  </si>
+  <si>
+    <t>Reporting organization details includes information such as:
+- Legal name and form of the organization
+- Location of the organization's headquarters
+- The countries where the organization operates, and the names of the countries where it has significant operations and/or that are specifically relevant to the sustainability topics covered in the report
+- Nature of ownership and legal form
+- Markets served (including geographic breakdown, sectors served, and types of customers and beneficiaries)
+- The scale of the organization (e.g., number of employees, net sales, total capitalization broken down in terms of debt and equity, and quantity of products or services provided)
+The details provided should offer a comprehensive context about the organization's size, structure, market presence, and location, which will aid stakeholders in understanding the scope and impact of the organization's activities on sustainability topics.</t>
+  </si>
+  <si>
+    <t>Entities may be included in the sustainability reporting based on their significance to the organizationâ€™s sustainability impacts, risks, and opportunities. The boundary of the sustainability reporting can be different from the boundary of the financial reporting, and thus it is important for the organization to clarify this aspect in its disclosure. The organization should also describe any processes or criteria used to determine which entities are included in the sustainability reporting.</t>
+  </si>
+  <si>
+    <t>No specific disclosure annex provided.</t>
+  </si>
+  <si>
+    <t>Restatements may occur due to changes in calculation methodologies, changes in the boundary of the organization, or recognition of errors in the previous report. The organization should provide transparent and accurate details regarding any such restatements to maintain trust and accuracy in its sustainability reporting.</t>
+  </si>
+  <si>
+    <t>This disclosure aims to provide transparency into the rigor and credibility of the reported sustainability information. External assurance adds value for stakeholders by enhancing the reliability of the disclosed information. The assurance statement should be public to ensure it is accessible to all stakeholders.</t>
+  </si>
+  <si>
+    <t>Organizations are encouraged to include graphical representations of their value chain and map out their key suppliers and partners. This can help stakeholders better understand the organizationâ€™s business operations and the potential environmental and social impacts associated with each stage of the value chain.</t>
+  </si>
+  <si>
+    <t>The organization is required to disclose data on its employees. Specific disclosure requirements include: 
+- The total number of employees.
+- A breakdown of employees by gender.
+- A breakdown of employees by region, employment contract (permanent and temporary), and employment type (full-time and part-time).</t>
+  </si>
+  <si>
+    <t>Details should also include explanations on how data is compiled, definitions used, and how the organization manages and reports on employee-related matters.</t>
+  </si>
+  <si>
+    <t>When disclosing information on workers who are not employees, the organization shall include:_x000D_
+(a) the total number of workers who are not employees but whose work is controlled by the organization;_x000D_
+(b) the type and nature of work that these workers do;_x000D_
+(c) information on any social or labor protections they have access to;_x000D_
+(d) the geographical breakdown of where these workers are based;_x000D_
+(e) any significant changes in the number or type of workers who are not employees over time.</t>
+  </si>
+  <si>
+    <t>This disclosure aims to provide transparency regarding how decisions are made within the organization, particularly in relation to sustainability and stakeholder engagement._x000D_
+Organizations should describe any measures taken to ensure diversity within the governance structure and explain the role of each committee of the highest governance body. If there are independent members or non-executive members in the governance body, their role in ensuring checks and balances and representing minority shareholders or stakeholders should be elaborated. Organizations might also include a discussion of how the governance structure supports the strategic integration of environmental, social, and governance considerations into business practices.</t>
+  </si>
+  <si>
+    <t>No additional annex provided.</t>
+  </si>
+  <si>
+    <t>The organization shall disclose the process for nominating and selecting the highest governance body and its committees.</t>
+  </si>
+  <si>
+    <t>This may include:
+- The criteria used for nominating and selecting the highest governance body members, including any diversity criteria;
+- Whether and how stakeholders (including shareholders) are involved in the nomination and selection process;
+- Any other relevant information regarding the nomination and selection process for the highest governance body.</t>
+  </si>
+  <si>
+    <t>The organization shall describe the role of the highest governance body and its committees in overseeing the management of impacts and ensuring accountability for the organization's impacts. Specifically, the organization should elaborate on:
+(a) The highest committee or position accountable for management of impacts;
+(b) The process by which the highest governance body reviews the management of impacts;
+(c) How often and under what circumstances the highest governance body is informed about the management of impacts;
+(d) The role of the highest governance body in reviewing the effectiveness of the management of impacts;
+(e) Any external advice or assessments undertaken, and the extent of stakeholder engagement;
+(f) The communication processes between the highest governance body and senior management on sustainability issues.</t>
+  </si>
+  <si>
+    <t>The undertaking may provide supporting documentation, such as governance charters, meeting minutes, or annual reports, which demonstrate the role and actions of the highest governance body in overseeing the management of impacts.</t>
+  </si>
+  <si>
+    <t>The objective is to ensure transparency around the processes in place for evaluating the performance of the highest governance body, details on the evaluations, and how the outcomes are used to implement improvements in governance and organizational practices associated with economic, environmental, and social responsibilities.</t>
+  </si>
+  <si>
+    <t>This includes ongoing education or training on economic, environmental, and social topics related to the organization's significant impacts and its strategy for managing those impacts, including risks and opportunities.</t>
+  </si>
+  <si>
+    <t>This disclosure may include, but is not limited to:_x000D_
+(a) how the concerns are communicated;_x000D_
+(b) a description of the communication channels;_x000D_
+(c) policies and procedures that underpin the communication mechanism;_x000D_
+(d) any measures taken to protect confidentiality and ensure individuals can raise concerns without any risk of retaliation.</t>
+  </si>
+  <si>
+    <t>The organization may include:_x000D_
+(a) an overview of the organization's strategic focus areas and key commitments related to sustainable development;_x000D_
+(b) how the organization integrates sustainable development considerations into its core business processes, decision-making, and vision for the future;_x000D_
+(c) key sustainability milestones or achievements and their alignment with global and industry-specific sustainability goals such as the United Nations Sustainable Development Goals (SDGs);_x000D_
+(d) any key partnerships or collaborations in place to achieve sustainability objectives;_x000D_
+(e) reference to material topics and how they are factored into the organization's strategy;_x000D_
+(f) how the organization monitors and reports on progress against its sustainability objectives.</t>
+  </si>
+  <si>
+    <t>The organization should also describe any methodologies or assumptions used in calculating the ratios and provide a brief explanation of the key factors that influenced any changes in the ratio over time. This disclosure helps stakeholders understand the degree of income inequality within the organization and assess the fairness of compensation practices.</t>
+  </si>
+  <si>
+    <t>The undertaking shall provide details to justify how the remuneration structure aligns with the organization's overall strategy, including its sustainability objectives. This shall include any remuneration policies or structures in place to promote long-term performance and sustainability outcomes.</t>
+  </si>
+  <si>
+    <t>The disclosure should also cover mechanisms for monitoring and ensuring adherence to these policy commitments and how the organization addresses any breaches. It may include descriptions of integrating these commitments into operational policies and procedures, involving stakeholders in the process, and providing regular updates on progress and challenges.</t>
+  </si>
+  <si>
+    <t>The disclosure should include:_x000D_
+(a) the types of advice and concerns that can be raised through these mechanisms;_x000D_
+(b) the processes in place to seek advice or raise concerns, including to whom, how, and when;_x000D_
+(c) any policies and procedures that support these mechanisms;_x000D_
+(d) the steps the organization takes to protect the confidentiality of individuals seeking advice or raising concerns;_x000D_
+(e) measures in place to prevent retaliation against individuals who use these mechanisms;_x000D_
+(f) how the organization tracks and follows up on concerns raised.</t>
+  </si>
+  <si>
+    <t>Half-yearly or annual review of stakeholder engagement processes ensures the relevance and responsiveness to stakeholders' concerns and expectations. The organization is expected to contextualize the engagement based on the geographical, cultural, and operational landscape it operates within. It should also include the evolution of stakeholder engagement mechanisms over time and any planned future enhancements.</t>
+  </si>
+  <si>
+    <t>This disclosure focuses on the organization's connections with various associations and advocacy organizations. These memberships may reflect the organizationâ€™s interests, areas of influence, and its engagement with industry standards and policy development. The disclosure can include the name of the association, the role the organization plays, financial and non-financial commitments, and any significant positions held by the organization within these associations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This disclosure requires details on management practices, including but not limited to policies, goals, resources, and monitoring practices. It is intended to provide stakeholders with comprehensive information about how material topics are managed within the organization._x000D_
+</t>
+  </si>
+  <si>
+    <t>To provide this disclosure, the organization should:_x000D_
+(a) list each material topic;_x000D_
+(b) include the rationale for identifying each material topic;_x000D_
+(c) categorize the material topics for easier understanding if applicable;_x000D_
+(d) ensure the list of material topics reflects the organization's significant economic, environmental, and social impacts and the stakeholder interests that substantiate the materiality assessment.</t>
   </si>
 </sst>
 </file>
@@ -426,9 +1029,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -454,38 +1055,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="8">
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -494,13 +1092,109 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="14"/>
+        <sz val="11"/>
         <color theme="1"/>
         <name val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -516,18 +1210,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{51236906-150E-48DC-9AEA-481BF5BE5F42}" name="Table4" displayName="Table4" ref="A1:F25" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="A1:F25" xr:uid="{51236906-150E-48DC-9AEA-481BF5BE5F42}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F25">
-    <sortCondition ref="A1:A25"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{51236906-150E-48DC-9AEA-481BF5BE5F42}" name="Table4" displayName="Table4" ref="A1:F59" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="A1:F59" xr:uid="{51236906-150E-48DC-9AEA-481BF5BE5F42}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F59">
+    <sortCondition ref="A1:A59"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{B103A65A-E156-4E5B-9AA1-2B98669FA25C}" name="disclosureNumber"/>
-    <tableColumn id="2" xr3:uid="{F66AD848-CA98-44D8-B4AB-02431BE27083}" name="disclosureName"/>
-    <tableColumn id="3" xr3:uid="{8929F49A-141C-4ABD-A5A9-83B4D0B92686}" name="disclosureRequirement" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{73AEB35E-F55E-4193-930B-5462515B0E1D}" name="disclosureRequirementDetail" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{FBAA9B2A-DF83-4F0F-BF26-93040C013D55}" name="disclosureAnnex" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{4949215C-FF22-4C6B-9F06-B72EB8CA0964}" name="__PowerAppsId__" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{B103A65A-E156-4E5B-9AA1-2B98669FA25C}" name="disclosureNumber" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{F66AD848-CA98-44D8-B4AB-02431BE27083}" name="disclosureName" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{8929F49A-141C-4ABD-A5A9-83B4D0B92686}" name="disclosureRequirement" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{73AEB35E-F55E-4193-930B-5462515B0E1D}" name="disclosureRequirementDetail" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{FBAA9B2A-DF83-4F0F-BF26-93040C013D55}" name="disclosureAnnex" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{4949215C-FF22-4C6B-9F06-B72EB8CA0964}" name="__PowerAppsId__" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -850,525 +1544,1107 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E649225-4F44-4F27-A7EB-90C84ED9402B}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.109375" customWidth="1"/>
-    <col min="4" max="4" width="46.6640625" customWidth="1"/>
-    <col min="5" max="5" width="79.6640625" customWidth="1"/>
+    <col min="1" max="1" width="23.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45" style="1" customWidth="1"/>
+    <col min="3" max="3" width="55.36328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="74.26953125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="97.26953125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="40.54296875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="54" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="145" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="261" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C11" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="92" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="203" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="116" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="145" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="232" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="232" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C36" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D36" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E36" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F36" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="259.2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="37" spans="1:6" ht="203" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C37" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D37" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E37" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F37" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="38" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C38" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D38" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E38" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F38" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="39" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C39" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D39" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E39" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F39" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="144" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>113</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="40" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C40" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D40" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E40" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F40" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="216" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="41" spans="1:6" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C41" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D41" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="E41" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="F41" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="3" t="s">
+    </row>
+    <row r="42" spans="1:6" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="216" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="D42" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="3" t="s">
+      <c r="E42" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F42" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="3" t="s">
+    </row>
+    <row r="43" spans="1:6" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="3" t="s">
+      <c r="D43" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="216" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="E43" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="3" t="s">
+    </row>
+    <row r="44" spans="1:6" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D44" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="3" t="s">
+      <c r="E44" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F44" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="216" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="45" spans="1:6" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="3" t="s">
+      <c r="D45" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="E45" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F45" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="3" t="s">
+    </row>
+    <row r="46" spans="1:6" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="216" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="D46" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="3" t="s">
+      <c r="E46" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F46" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="3" t="s">
+    </row>
+    <row r="47" spans="1:6" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="3" t="s">
+      <c r="D47" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="216" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="E47" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F47" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="3" t="s">
+    </row>
+    <row r="48" spans="1:6" ht="217.5" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="C48" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="3" t="s">
+      <c r="D48" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="216" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="E48" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="3" t="s">
+      <c r="F48" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="3" t="s">
+    </row>
+    <row r="49" spans="1:6" ht="217.5" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="3" t="s">
+      <c r="D49" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="230.4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="E49" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F49" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B14" t="s">
+    </row>
+    <row r="50" spans="1:6" ht="217.5" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="D50" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="E50" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F50" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E14" s="3" t="s">
+    </row>
+    <row r="51" spans="1:6" ht="217.5" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="D51" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="230.4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="E51" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F51" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B15" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" s="3" t="s">
+    </row>
+    <row r="52" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="C52" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F15" s="3" t="s">
+      <c r="D52" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="230.4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="E52" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B16" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="3" t="s">
+      <c r="F52" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D16" s="3" t="s">
+    </row>
+    <row r="53" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F16" s="3" t="s">
+      <c r="D53" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="230.4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="E53" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B17" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" s="3" t="s">
+      <c r="F53" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D17" s="3" t="s">
+    </row>
+    <row r="54" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A54" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F17" s="3" t="s">
+      <c r="D54" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="E54" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F54" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B18" t="s">
+    </row>
+    <row r="55" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="D55" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="E55" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F55" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E18" s="3" t="s">
+    </row>
+    <row r="56" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A56" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="D56" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="E56" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F56" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B19" t="s">
-        <v>75</v>
-      </c>
-      <c r="C19" s="3" t="s">
+    </row>
+    <row r="57" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A58" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D58" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E58" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F58" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F19" s="3" t="s">
+    </row>
+    <row r="59" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A59" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="D59" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B20" t="s">
-        <v>75</v>
-      </c>
-      <c r="C20" s="3" t="s">
+      <c r="E59" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F59" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>89</v>
-      </c>
-      <c r="B21" t="s">
-        <v>75</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>93</v>
-      </c>
-      <c r="B22" t="s">
-        <v>75</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>105</v>
-      </c>
-      <c r="B23" t="s">
-        <v>75</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>97</v>
-      </c>
-      <c r="B24" t="s">
-        <v>75</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>101</v>
-      </c>
-      <c r="B25" t="s">
-        <v>75</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>104</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
